--- a/Trasaturi.xlsx
+++ b/Trasaturi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctipub-my.sharepoint.com/personal/ioana_boriceanu_stud_acs_upb_ro/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctipub-my.sharepoint.com/personal/ioana_boriceanu_stud_acs_upb_ro/Documents/Master/StyleChangeDetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94017E99-DFE3-46F8-B81F-515B43632DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{94017E99-DFE3-46F8-B81F-515B43632DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5D50A3-FCDE-4AA1-AB68-1ADD4C8F7D5C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trasaturi" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Lungimea medie a frazelor</t>
   </si>
   <si>
-    <t>Numrul semnelor de punctuatie</t>
-  </si>
-  <si>
     <t>Lungimea medie a cuvintelor</t>
   </si>
   <si>
@@ -99,12 +96,15 @@
   </si>
   <si>
     <t>Semne de punctuatie</t>
+  </si>
+  <si>
+    <t>Numarul semnelor de punctuatie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,11 +528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,13 +544,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -580,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,35 +615,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -660,6 +660,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f1c9dd4-eaad-4c67-aec3-2daccd80e939" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100222E3AD3D9ABAB48A155EE705FCED4B1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="da8c441ede8d122961858e08716ff71c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f1c9dd4-eaad-4c67-aec3-2daccd80e939" xmlns:ns4="a0217618-379e-4f5c-80ce-e738b55a1389" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbdcce55b48b12752dec813cbd081d" ns3:_="" ns4:_="">
     <xsd:import namespace="7f1c9dd4-eaad-4c67-aec3-2daccd80e939"/>
@@ -912,24 +929,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6F1CB8-BFC9-4F41-BABC-B6313C95A0E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0217618-379e-4f5c-80ce-e738b55a1389"/>
+    <ds:schemaRef ds:uri="7f1c9dd4-eaad-4c67-aec3-2daccd80e939"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f1c9dd4-eaad-4c67-aec3-2daccd80e939" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F10984-B0D6-47FE-9A95-A0DA90BE5566}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C2466F-A175-4D4D-A282-9987C0E847B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -946,29 +971,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F10984-B0D6-47FE-9A95-A0DA90BE5566}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6F1CB8-BFC9-4F41-BABC-B6313C95A0E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0217618-379e-4f5c-80ce-e738b55a1389"/>
-    <ds:schemaRef ds:uri="7f1c9dd4-eaad-4c67-aec3-2daccd80e939"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>